--- a/template.xlsx
+++ b/template.xlsx
@@ -52,7 +52,7 @@
     <t>DIAS</t>
   </si>
   <si>
-    <t>1PE11CS200</t>
+    <t>CHECKLIST</t>
   </si>
 </sst>
 </file>

--- a/template.xlsx
+++ b/template.xlsx
@@ -13,13 +13,43 @@
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="200" sheetId="2" r:id="rId2"/>
+    <sheet name="201" sheetId="3" r:id="rId3"/>
+    <sheet name="202" sheetId="4" r:id="rId4"/>
+    <sheet name="203" sheetId="5" r:id="rId5"/>
+    <sheet name="204" sheetId="6" r:id="rId6"/>
+    <sheet name="206" sheetId="7" r:id="rId7"/>
+    <sheet name="300" sheetId="8" r:id="rId8"/>
+    <sheet name="301" sheetId="9" r:id="rId9"/>
+    <sheet name="302" sheetId="10" r:id="rId10"/>
+    <sheet name="303" sheetId="11" r:id="rId11"/>
+    <sheet name="304" sheetId="12" r:id="rId12"/>
+    <sheet name="306" sheetId="13" r:id="rId13"/>
+    <sheet name="400" sheetId="14" r:id="rId14"/>
+    <sheet name="401" sheetId="15" r:id="rId15"/>
+    <sheet name="402" sheetId="16" r:id="rId16"/>
+    <sheet name="403" sheetId="17" r:id="rId17"/>
+    <sheet name="404" sheetId="18" r:id="rId18"/>
+    <sheet name="406" sheetId="19" r:id="rId19"/>
+    <sheet name="500" sheetId="20" r:id="rId20"/>
+    <sheet name="501" sheetId="21" r:id="rId21"/>
+    <sheet name="502" sheetId="22" r:id="rId22"/>
+    <sheet name="503" sheetId="23" r:id="rId23"/>
+    <sheet name="504" sheetId="24" r:id="rId24"/>
+    <sheet name="506" sheetId="25" r:id="rId25"/>
+    <sheet name="600" sheetId="26" r:id="rId26"/>
+    <sheet name="601" sheetId="27" r:id="rId27"/>
+    <sheet name="602" sheetId="28" r:id="rId28"/>
+    <sheet name="603" sheetId="29" r:id="rId29"/>
+    <sheet name="604" sheetId="30" r:id="rId30"/>
+    <sheet name="606" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="212">
   <si>
     <t>DOOR</t>
   </si>
@@ -52,6 +82,609 @@
   </si>
   <si>
     <t>COLUMN 9</t>
+  </si>
+  <si>
+    <t>1PE11CS006</t>
+  </si>
+  <si>
+    <t>1PE11EC006</t>
+  </si>
+  <si>
+    <t>1PE11CS012</t>
+  </si>
+  <si>
+    <t>1PE11EC012</t>
+  </si>
+  <si>
+    <t>1PE11CS018</t>
+  </si>
+  <si>
+    <t>1PE11EC018</t>
+  </si>
+  <si>
+    <t>1PE11CS024</t>
+  </si>
+  <si>
+    <t>1PE11EC024</t>
+  </si>
+  <si>
+    <t>1PE11CS030</t>
+  </si>
+  <si>
+    <t>1PE11EC030</t>
+  </si>
+  <si>
+    <t>1PE11CS036</t>
+  </si>
+  <si>
+    <t>1PE11EC036</t>
+  </si>
+  <si>
+    <t>1PE11CS042</t>
+  </si>
+  <si>
+    <t>1PE11EC042</t>
+  </si>
+  <si>
+    <t>1PE11CS048</t>
+  </si>
+  <si>
+    <t>1PE11EC048</t>
+  </si>
+  <si>
+    <t>1PE11CS054</t>
+  </si>
+  <si>
+    <t>1PE11EC054</t>
+  </si>
+  <si>
+    <t>1PE11CS060</t>
+  </si>
+  <si>
+    <t>1PE11EC060</t>
+  </si>
+  <si>
+    <t>1PE11CS066</t>
+  </si>
+  <si>
+    <t>1PE11EC066</t>
+  </si>
+  <si>
+    <t>1PE11CS072</t>
+  </si>
+  <si>
+    <t>1PE11EC072</t>
+  </si>
+  <si>
+    <t>1PE11CS078</t>
+  </si>
+  <si>
+    <t>1PE11EC078</t>
+  </si>
+  <si>
+    <t>1PE11CS084</t>
+  </si>
+  <si>
+    <t>1PE11EC084</t>
+  </si>
+  <si>
+    <t>1PE11CS090</t>
+  </si>
+  <si>
+    <t>1PE11EC090</t>
+  </si>
+  <si>
+    <t>1PE11CS096</t>
+  </si>
+  <si>
+    <t>1PE11EC096</t>
+  </si>
+  <si>
+    <t>1PE11CS102</t>
+  </si>
+  <si>
+    <t>1PE11EC102</t>
+  </si>
+  <si>
+    <t>1PE11CS108</t>
+  </si>
+  <si>
+    <t>1PE11EC108</t>
+  </si>
+  <si>
+    <t>1PE11CS114</t>
+  </si>
+  <si>
+    <t>1PE11EC114</t>
+  </si>
+  <si>
+    <t>1PE11CS120</t>
+  </si>
+  <si>
+    <t>1PE11EC120</t>
+  </si>
+  <si>
+    <t>1PE11CS126</t>
+  </si>
+  <si>
+    <t>1PE11EC126</t>
+  </si>
+  <si>
+    <t>1PE11CS132</t>
+  </si>
+  <si>
+    <t>1PE11EC132</t>
+  </si>
+  <si>
+    <t>1PE11CS138</t>
+  </si>
+  <si>
+    <t>1PE11EC138</t>
+  </si>
+  <si>
+    <t>1PE11CS144</t>
+  </si>
+  <si>
+    <t>1PE11EC144</t>
+  </si>
+  <si>
+    <t>1PE11CS150</t>
+  </si>
+  <si>
+    <t>1PE11EC150</t>
+  </si>
+  <si>
+    <t>1PE11CS156</t>
+  </si>
+  <si>
+    <t>1PE11EC156</t>
+  </si>
+  <si>
+    <t>1PE11CS162</t>
+  </si>
+  <si>
+    <t>1PE11EC162</t>
+  </si>
+  <si>
+    <t>1PE11CS168</t>
+  </si>
+  <si>
+    <t>1PE11EC168</t>
+  </si>
+  <si>
+    <t>1PE11CS174</t>
+  </si>
+  <si>
+    <t>1PE11EC174</t>
+  </si>
+  <si>
+    <t>1PE11CS180</t>
+  </si>
+  <si>
+    <t>1PE11EC180</t>
+  </si>
+  <si>
+    <t>1PE11CS186</t>
+  </si>
+  <si>
+    <t>1PE11EC186</t>
+  </si>
+  <si>
+    <t>1PE11CS192</t>
+  </si>
+  <si>
+    <t>1PE11EC192</t>
+  </si>
+  <si>
+    <t>1PE11CS198</t>
+  </si>
+  <si>
+    <t>1PE11EC198</t>
+  </si>
+  <si>
+    <t>1PE12CS004</t>
+  </si>
+  <si>
+    <t>1PE12EC004</t>
+  </si>
+  <si>
+    <t>1PE12CS010</t>
+  </si>
+  <si>
+    <t>1PE12EC010</t>
+  </si>
+  <si>
+    <t>1PE12CS016</t>
+  </si>
+  <si>
+    <t>1PE12EC016</t>
+  </si>
+  <si>
+    <t>1PE12CS022</t>
+  </si>
+  <si>
+    <t>1PE12EC022</t>
+  </si>
+  <si>
+    <t>1PE12CS028</t>
+  </si>
+  <si>
+    <t>1PE12EC028</t>
+  </si>
+  <si>
+    <t>1PE12CS034</t>
+  </si>
+  <si>
+    <t>1PE12EC034</t>
+  </si>
+  <si>
+    <t>1PE12CS040</t>
+  </si>
+  <si>
+    <t>1PE12EC040</t>
+  </si>
+  <si>
+    <t>1PE12CS046</t>
+  </si>
+  <si>
+    <t>1PE12EC046</t>
+  </si>
+  <si>
+    <t>1PE12CS052</t>
+  </si>
+  <si>
+    <t>1PE12EC052</t>
+  </si>
+  <si>
+    <t>1PE12CS058</t>
+  </si>
+  <si>
+    <t>1PE12EC058</t>
+  </si>
+  <si>
+    <t>1PE12CS064</t>
+  </si>
+  <si>
+    <t>1PE12EC064</t>
+  </si>
+  <si>
+    <t>1PE12CS070</t>
+  </si>
+  <si>
+    <t>1PE12EC070</t>
+  </si>
+  <si>
+    <t>1PE12CS076</t>
+  </si>
+  <si>
+    <t>1PE12EC076</t>
+  </si>
+  <si>
+    <t>1PE12CS082</t>
+  </si>
+  <si>
+    <t>1PE12EC082</t>
+  </si>
+  <si>
+    <t>1PE12CS088</t>
+  </si>
+  <si>
+    <t>1PE12EC088</t>
+  </si>
+  <si>
+    <t>1PE12CS094</t>
+  </si>
+  <si>
+    <t>1PE12EC094</t>
+  </si>
+  <si>
+    <t>1PE12CS100</t>
+  </si>
+  <si>
+    <t>1PE12EC100</t>
+  </si>
+  <si>
+    <t>1PE12CS106</t>
+  </si>
+  <si>
+    <t>1PE12EC106</t>
+  </si>
+  <si>
+    <t>1PE12CS112</t>
+  </si>
+  <si>
+    <t>1PE12EC112</t>
+  </si>
+  <si>
+    <t>1PE12CS118</t>
+  </si>
+  <si>
+    <t>1PE12EC118</t>
+  </si>
+  <si>
+    <t>1PE12CS124</t>
+  </si>
+  <si>
+    <t>1PE12EC124</t>
+  </si>
+  <si>
+    <t>1PE12CS130</t>
+  </si>
+  <si>
+    <t>1PE12EC130</t>
+  </si>
+  <si>
+    <t>1PE12CS136</t>
+  </si>
+  <si>
+    <t>1PE12EC136</t>
+  </si>
+  <si>
+    <t>1PE12CS142</t>
+  </si>
+  <si>
+    <t>1PE12EC142</t>
+  </si>
+  <si>
+    <t>1PE12CS148</t>
+  </si>
+  <si>
+    <t>1PE12EC148</t>
+  </si>
+  <si>
+    <t>1PE12CS154</t>
+  </si>
+  <si>
+    <t>1PE12EC154</t>
+  </si>
+  <si>
+    <t>1PE12CS160</t>
+  </si>
+  <si>
+    <t>1PE12EC160</t>
+  </si>
+  <si>
+    <t>1PE12CS166</t>
+  </si>
+  <si>
+    <t>1PE12EC166</t>
+  </si>
+  <si>
+    <t>1PE12CS172</t>
+  </si>
+  <si>
+    <t>1PE12EC172</t>
+  </si>
+  <si>
+    <t>1PE12CS178</t>
+  </si>
+  <si>
+    <t>1PE12EC178</t>
+  </si>
+  <si>
+    <t>1PE12CS184</t>
+  </si>
+  <si>
+    <t>1PE12EC184</t>
+  </si>
+  <si>
+    <t>1PE12CS190</t>
+  </si>
+  <si>
+    <t>1PE12EC190</t>
+  </si>
+  <si>
+    <t>1PE12CS196</t>
+  </si>
+  <si>
+    <t>1PE12EC196</t>
+  </si>
+  <si>
+    <t>1PE13CS002</t>
+  </si>
+  <si>
+    <t>1PE13EC002</t>
+  </si>
+  <si>
+    <t>1PE13CS008</t>
+  </si>
+  <si>
+    <t>1PE13EC008</t>
+  </si>
+  <si>
+    <t>1PE13CS014</t>
+  </si>
+  <si>
+    <t>1PE13EC014</t>
+  </si>
+  <si>
+    <t>1PE13CS020</t>
+  </si>
+  <si>
+    <t>1PE13EC020</t>
+  </si>
+  <si>
+    <t>1PE13CS026</t>
+  </si>
+  <si>
+    <t>1PE13EC026</t>
+  </si>
+  <si>
+    <t>1PE13CS032</t>
+  </si>
+  <si>
+    <t>1PE13EC032</t>
+  </si>
+  <si>
+    <t>1PE13CS038</t>
+  </si>
+  <si>
+    <t>1PE13EC038</t>
+  </si>
+  <si>
+    <t>1PE13CS044</t>
+  </si>
+  <si>
+    <t>1PE13EC044</t>
+  </si>
+  <si>
+    <t>1PE13CS050</t>
+  </si>
+  <si>
+    <t>1PE13EC050</t>
+  </si>
+  <si>
+    <t>1PE13CS056</t>
+  </si>
+  <si>
+    <t>1PE13EC056</t>
+  </si>
+  <si>
+    <t>1PE13CS062</t>
+  </si>
+  <si>
+    <t>1PE13EC062</t>
+  </si>
+  <si>
+    <t>1PE13CS068</t>
+  </si>
+  <si>
+    <t>1PE13EC068</t>
+  </si>
+  <si>
+    <t>1PE13CS074</t>
+  </si>
+  <si>
+    <t>1PE13EC074</t>
+  </si>
+  <si>
+    <t>1PE13CS080</t>
+  </si>
+  <si>
+    <t>1PE13EC080</t>
+  </si>
+  <si>
+    <t>1PE13CS086</t>
+  </si>
+  <si>
+    <t>1PE13EC086</t>
+  </si>
+  <si>
+    <t>1PE13CS092</t>
+  </si>
+  <si>
+    <t>1PE13EC092</t>
+  </si>
+  <si>
+    <t>1PE13CS098</t>
+  </si>
+  <si>
+    <t>1PE13EC098</t>
+  </si>
+  <si>
+    <t>1PE13CS104</t>
+  </si>
+  <si>
+    <t>1PE13EC104</t>
+  </si>
+  <si>
+    <t>1PE13CS110</t>
+  </si>
+  <si>
+    <t>1PE13EC110</t>
+  </si>
+  <si>
+    <t>1PE13CS116</t>
+  </si>
+  <si>
+    <t>1PE13EC116</t>
+  </si>
+  <si>
+    <t>1PE13CS122</t>
+  </si>
+  <si>
+    <t>1PE13EC122</t>
+  </si>
+  <si>
+    <t>1PE13CS128</t>
+  </si>
+  <si>
+    <t>1PE13EC128</t>
+  </si>
+  <si>
+    <t>1PE13CS134</t>
+  </si>
+  <si>
+    <t>1PE13EC134</t>
+  </si>
+  <si>
+    <t>1PE13CS140</t>
+  </si>
+  <si>
+    <t>1PE13EC140</t>
+  </si>
+  <si>
+    <t>1PE13CS146</t>
+  </si>
+  <si>
+    <t>1PE13EC146</t>
+  </si>
+  <si>
+    <t>1PE13CS152</t>
+  </si>
+  <si>
+    <t>1PE13EC152</t>
+  </si>
+  <si>
+    <t>1PE13CS158</t>
+  </si>
+  <si>
+    <t>1PE13EC158</t>
+  </si>
+  <si>
+    <t>1PE13CS164</t>
+  </si>
+  <si>
+    <t>1PE13EC164</t>
+  </si>
+  <si>
+    <t>1PE13CS170</t>
+  </si>
+  <si>
+    <t>1PE13EC170</t>
+  </si>
+  <si>
+    <t>1PE13CS176</t>
+  </si>
+  <si>
+    <t>1PE13EC176</t>
+  </si>
+  <si>
+    <t>1PE13CS182</t>
+  </si>
+  <si>
+    <t>1PE13EC182</t>
+  </si>
+  <si>
+    <t>1PE13CS188</t>
+  </si>
+  <si>
+    <t>1PE13EC188</t>
+  </si>
+  <si>
+    <t>1PE13CS194</t>
+  </si>
+  <si>
+    <t>1PE13EC194</t>
+  </si>
+  <si>
+    <t>1PE13CS200</t>
+  </si>
+  <si>
+    <t>1PE13EC200</t>
+  </si>
+  <si>
+    <t>----------</t>
   </si>
 </sst>
 </file>
@@ -939,4 +1572,9004 @@
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="18" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+    <col min="10" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -743,8 +743,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="40" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -9,17 +9,47 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="200" sheetId="2" r:id="rId2"/>
+    <sheet name="201" sheetId="3" r:id="rId3"/>
+    <sheet name="202" sheetId="4" r:id="rId4"/>
+    <sheet name="203" sheetId="5" r:id="rId5"/>
+    <sheet name="204" sheetId="6" r:id="rId6"/>
+    <sheet name="206" sheetId="7" r:id="rId7"/>
+    <sheet name="300" sheetId="8" r:id="rId8"/>
+    <sheet name="301" sheetId="9" r:id="rId9"/>
+    <sheet name="302" sheetId="10" r:id="rId10"/>
+    <sheet name="303" sheetId="11" r:id="rId11"/>
+    <sheet name="304" sheetId="12" r:id="rId12"/>
+    <sheet name="306" sheetId="13" r:id="rId13"/>
+    <sheet name="400" sheetId="14" r:id="rId14"/>
+    <sheet name="401" sheetId="15" r:id="rId15"/>
+    <sheet name="402" sheetId="16" r:id="rId16"/>
+    <sheet name="403" sheetId="17" r:id="rId17"/>
+    <sheet name="404" sheetId="18" r:id="rId18"/>
+    <sheet name="406" sheetId="19" r:id="rId19"/>
+    <sheet name="500" sheetId="20" r:id="rId20"/>
+    <sheet name="501" sheetId="21" r:id="rId21"/>
+    <sheet name="502" sheetId="22" r:id="rId22"/>
+    <sheet name="503" sheetId="23" r:id="rId23"/>
+    <sheet name="504" sheetId="24" r:id="rId24"/>
+    <sheet name="506" sheetId="25" r:id="rId25"/>
+    <sheet name="600" sheetId="26" r:id="rId26"/>
+    <sheet name="601" sheetId="27" r:id="rId27"/>
+    <sheet name="602" sheetId="28" r:id="rId28"/>
+    <sheet name="603" sheetId="29" r:id="rId29"/>
+    <sheet name="604" sheetId="30" r:id="rId30"/>
+    <sheet name="606" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="11">
   <si>
     <t>DOOR</t>
   </si>
@@ -743,8 +773,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="40" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="L16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -939,4 +969,6062 @@
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="F3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F3:H4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Department of Computer Science &amp; Engineering&amp;R&amp;"Calibri,Regular"&amp;K000000Seating arrangement generated by ISMGen.</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
 </file>